--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.74560566666667</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H2">
-        <v>83.236817</v>
+        <v>142.424953</v>
       </c>
       <c r="I2">
-        <v>0.09876594060802939</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J2">
-        <v>0.0987659406080294</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04016966666666667</v>
+        <v>0.05831666666666666</v>
       </c>
       <c r="N2">
-        <v>0.120509</v>
+        <v>0.17495</v>
       </c>
       <c r="O2">
-        <v>0.001240853226449036</v>
+        <v>0.002051733086448293</v>
       </c>
       <c r="P2">
-        <v>0.001240853226449036</v>
+        <v>0.002051733086448293</v>
       </c>
       <c r="Q2">
-        <v>1.114531731094778</v>
+        <v>2.768582836372222</v>
       </c>
       <c r="R2">
-        <v>10.030785579853</v>
+        <v>24.91724552735</v>
       </c>
       <c r="S2">
-        <v>0.0001225540360667471</v>
+        <v>0.0002984203275469062</v>
       </c>
       <c r="T2">
-        <v>0.0001225540360667472</v>
+        <v>0.0002984203275469061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.74560566666667</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H3">
-        <v>83.236817</v>
+        <v>142.424953</v>
       </c>
       <c r="I3">
-        <v>0.09876594060802939</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J3">
-        <v>0.0987659406080294</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.873664</v>
       </c>
       <c r="O3">
-        <v>0.01929268369732889</v>
+        <v>0.02197346911510177</v>
       </c>
       <c r="P3">
-        <v>0.01929268369732889</v>
+        <v>0.02197346911510177</v>
       </c>
       <c r="Q3">
-        <v>17.32864749860978</v>
+        <v>29.65072301531022</v>
       </c>
       <c r="R3">
-        <v>155.957827487488</v>
+        <v>266.856507137792</v>
       </c>
       <c r="S3">
-        <v>0.001905460052219882</v>
+        <v>0.003195995567835648</v>
       </c>
       <c r="T3">
-        <v>0.001905460052219882</v>
+        <v>0.003195995567835648</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.74560566666667</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H4">
-        <v>83.236817</v>
+        <v>142.424953</v>
       </c>
       <c r="I4">
-        <v>0.09876594060802939</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J4">
-        <v>0.0987659406080294</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.510748333333334</v>
+        <v>9.500690666666666</v>
       </c>
       <c r="N4">
-        <v>28.532245</v>
+        <v>28.502072</v>
       </c>
       <c r="O4">
-        <v>0.2937899100157199</v>
+        <v>0.3342591835080392</v>
       </c>
       <c r="P4">
-        <v>0.2937899100157199</v>
+        <v>0.3342591835080393</v>
       </c>
       <c r="Q4">
-        <v>263.8814728515739</v>
+        <v>451.0451405558462</v>
       </c>
       <c r="R4">
-        <v>2374.933255664165</v>
+        <v>4059.406265002615</v>
       </c>
       <c r="S4">
-        <v>0.02901643680385088</v>
+        <v>0.0486173058702801</v>
       </c>
       <c r="T4">
-        <v>0.02901643680385089</v>
+        <v>0.0486173058702801</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.74560566666667</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H5">
-        <v>83.236817</v>
+        <v>142.424953</v>
       </c>
       <c r="I5">
-        <v>0.09876594060802939</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J5">
-        <v>0.0987659406080294</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6502340000000001</v>
+        <v>0.158094</v>
       </c>
       <c r="N5">
-        <v>1.950702</v>
+        <v>0.474282</v>
       </c>
       <c r="O5">
-        <v>0.02008592611788819</v>
+        <v>0.005562161027189878</v>
       </c>
       <c r="P5">
-        <v>0.02008592611788819</v>
+        <v>0.005562161027189879</v>
       </c>
       <c r="Q5">
-        <v>18.04113615505933</v>
+        <v>7.505510173193999</v>
       </c>
       <c r="R5">
-        <v>162.370225395534</v>
+        <v>67.54959155874599</v>
       </c>
       <c r="S5">
-        <v>0.001983805386016611</v>
+        <v>0.0008090048001692013</v>
       </c>
       <c r="T5">
-        <v>0.001983805386016612</v>
+        <v>0.0008090048001692012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.74560566666667</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H6">
-        <v>83.236817</v>
+        <v>142.424953</v>
       </c>
       <c r="I6">
-        <v>0.09876594060802939</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J6">
-        <v>0.0987659406080294</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.477804333333334</v>
+        <v>5.217172000000001</v>
       </c>
       <c r="N6">
-        <v>13.433413</v>
+        <v>15.651516</v>
       </c>
       <c r="O6">
-        <v>0.1383207383952438</v>
+        <v>0.1835537766806222</v>
       </c>
       <c r="P6">
-        <v>0.1383207383952438</v>
+        <v>0.1835537766806221</v>
       </c>
       <c r="Q6">
-        <v>124.2393932851579</v>
+        <v>247.6851589643053</v>
       </c>
       <c r="R6">
-        <v>1118.154539566421</v>
+        <v>2229.166430678748</v>
       </c>
       <c r="S6">
-        <v>0.01366137783320341</v>
+        <v>0.02669751661232149</v>
       </c>
       <c r="T6">
-        <v>0.01366137783320342</v>
+        <v>0.02669751661232148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.74560566666667</v>
+        <v>47.47498433333333</v>
       </c>
       <c r="H7">
-        <v>83.236817</v>
+        <v>142.424953</v>
       </c>
       <c r="I7">
-        <v>0.09876594060802939</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="J7">
-        <v>0.0987659406080294</v>
+        <v>0.1454479286404133</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.06910633333333</v>
+        <v>12.86429733333333</v>
       </c>
       <c r="N7">
-        <v>51.207319</v>
+        <v>38.592892</v>
       </c>
       <c r="O7">
-        <v>0.5272698885473702</v>
+        <v>0.4525996765825987</v>
       </c>
       <c r="P7">
-        <v>0.5272698885473702</v>
+        <v>0.4525996765825987</v>
       </c>
       <c r="Q7">
-        <v>473.5926934070692</v>
+        <v>610.7323143593418</v>
       </c>
       <c r="R7">
-        <v>4262.334240663623</v>
+        <v>5496.590829234075</v>
       </c>
       <c r="S7">
-        <v>0.05207630649667185</v>
+        <v>0.06582968546225995</v>
       </c>
       <c r="T7">
-        <v>0.05207630649667185</v>
+        <v>0.06582968546225994</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>267.659393</v>
       </c>
       <c r="I8">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J8">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.04016966666666667</v>
+        <v>0.05831666666666666</v>
       </c>
       <c r="N8">
-        <v>0.120509</v>
+        <v>0.17495</v>
       </c>
       <c r="O8">
-        <v>0.001240853226449036</v>
+        <v>0.002051733086448293</v>
       </c>
       <c r="P8">
-        <v>0.001240853226449036</v>
+        <v>0.002051733086448293</v>
       </c>
       <c r="Q8">
-        <v>3.583929532337445</v>
+        <v>5.203001200594445</v>
       </c>
       <c r="R8">
-        <v>32.255365791037</v>
+        <v>46.82701080535</v>
       </c>
       <c r="S8">
-        <v>0.0003940892994902202</v>
+        <v>0.0005608216962519631</v>
       </c>
       <c r="T8">
-        <v>0.0003940892994902202</v>
+        <v>0.000560821696251963</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>267.659393</v>
       </c>
       <c r="I9">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J9">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.873664</v>
       </c>
       <c r="O9">
-        <v>0.01929268369732889</v>
+        <v>0.02197346911510177</v>
       </c>
       <c r="P9">
-        <v>0.01929268369732889</v>
+        <v>0.02197346911510177</v>
       </c>
       <c r="Q9">
         <v>55.72264099177246</v>
       </c>
       <c r="R9">
-        <v>501.503768925952</v>
+        <v>501.5037689259521</v>
       </c>
       <c r="S9">
-        <v>0.006127267948784274</v>
+        <v>0.006006238483488072</v>
       </c>
       <c r="T9">
-        <v>0.006127267948784274</v>
+        <v>0.006006238483488071</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>267.659393</v>
       </c>
       <c r="I10">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J10">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.510748333333334</v>
+        <v>9.500690666666666</v>
       </c>
       <c r="N10">
-        <v>28.532245</v>
+        <v>28.502072</v>
       </c>
       <c r="O10">
-        <v>0.2937899100157199</v>
+        <v>0.3342591835080392</v>
       </c>
       <c r="P10">
-        <v>0.2937899100157199</v>
+        <v>0.3342591835080393</v>
       </c>
       <c r="Q10">
-        <v>848.5470419585873</v>
+        <v>847.6496989735884</v>
       </c>
       <c r="R10">
-        <v>7636.923377627286</v>
+        <v>7628.847290762296</v>
       </c>
       <c r="S10">
-        <v>0.09330632936073936</v>
+        <v>0.09136656396533627</v>
       </c>
       <c r="T10">
-        <v>0.09330632936073936</v>
+        <v>0.09136656396533625</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>267.659393</v>
       </c>
       <c r="I11">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J11">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6502340000000001</v>
+        <v>0.158094</v>
       </c>
       <c r="N11">
-        <v>1.950702</v>
+        <v>0.474282</v>
       </c>
       <c r="O11">
-        <v>0.02008592611788819</v>
+        <v>0.005562161027189878</v>
       </c>
       <c r="P11">
-        <v>0.02008592611788819</v>
+        <v>0.005562161027189879</v>
       </c>
       <c r="Q11">
-        <v>58.01374591598735</v>
+        <v>14.105114692314</v>
       </c>
       <c r="R11">
-        <v>522.1237132438861</v>
+        <v>126.946032230826</v>
       </c>
       <c r="S11">
-        <v>0.006379198107146949</v>
+        <v>0.001520363736734916</v>
       </c>
       <c r="T11">
-        <v>0.006379198107146949</v>
+        <v>0.001520363736734916</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>267.659393</v>
       </c>
       <c r="I12">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J12">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.477804333333334</v>
+        <v>5.217172000000001</v>
       </c>
       <c r="N12">
-        <v>13.433413</v>
+        <v>15.651516</v>
       </c>
       <c r="O12">
-        <v>0.1383207383952438</v>
+        <v>0.1835537766806222</v>
       </c>
       <c r="P12">
-        <v>0.1383207383952438</v>
+        <v>0.1835537766806221</v>
       </c>
       <c r="Q12">
-        <v>399.5087966109234</v>
+        <v>465.4750302321988</v>
       </c>
       <c r="R12">
-        <v>3595.57916949831</v>
+        <v>4189.275272089789</v>
       </c>
       <c r="S12">
-        <v>0.04393003276877925</v>
+        <v>0.05017267649062442</v>
       </c>
       <c r="T12">
-        <v>0.04393003276877926</v>
+        <v>0.0501726764906244</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>267.659393</v>
       </c>
       <c r="I13">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166415</v>
       </c>
       <c r="J13">
-        <v>0.3175954182897119</v>
+        <v>0.2733404749166414</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.06910633333333</v>
+        <v>12.86429733333333</v>
       </c>
       <c r="N13">
-        <v>51.207319</v>
+        <v>38.592892</v>
       </c>
       <c r="O13">
-        <v>0.5272698885473702</v>
+        <v>0.4525996765825987</v>
       </c>
       <c r="P13">
-        <v>0.5272698885473702</v>
+        <v>0.4525996765825987</v>
       </c>
       <c r="Q13">
-        <v>1522.902213410819</v>
+        <v>1147.75000520384</v>
       </c>
       <c r="R13">
-        <v>13706.11992069737</v>
+        <v>10329.75004683456</v>
       </c>
       <c r="S13">
-        <v>0.1674585008047718</v>
+        <v>0.1237138105442059</v>
       </c>
       <c r="T13">
-        <v>0.1674585008047718</v>
+        <v>0.1237138105442058</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.73152166666667</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H14">
-        <v>137.194565</v>
+        <v>147.329521</v>
       </c>
       <c r="I14">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J14">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.04016966666666667</v>
+        <v>0.05831666666666666</v>
       </c>
       <c r="N14">
-        <v>0.120509</v>
+        <v>0.17495</v>
       </c>
       <c r="O14">
-        <v>0.001240853226449036</v>
+        <v>0.002051733086448293</v>
       </c>
       <c r="P14">
-        <v>0.001240853226449036</v>
+        <v>0.002051733086448293</v>
       </c>
       <c r="Q14">
-        <v>1.837019981509445</v>
+        <v>2.863922188772222</v>
       </c>
       <c r="R14">
-        <v>16.533179833585</v>
+        <v>25.77529969895</v>
       </c>
       <c r="S14">
-        <v>0.0002019989263545684</v>
+        <v>0.0003086967767098284</v>
       </c>
       <c r="T14">
-        <v>0.0002019989263545684</v>
+        <v>0.0003086967767098284</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.73152166666667</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H15">
-        <v>137.194565</v>
+        <v>147.329521</v>
       </c>
       <c r="I15">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J15">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.873664</v>
       </c>
       <c r="O15">
-        <v>0.01929268369732889</v>
+        <v>0.02197346911510177</v>
       </c>
       <c r="P15">
-        <v>0.01929268369732889</v>
+        <v>0.02197346911510177</v>
       </c>
       <c r="Q15">
-        <v>28.56183527068445</v>
+        <v>30.67177995943822</v>
       </c>
       <c r="R15">
-        <v>257.05651743616</v>
+        <v>276.0460196349441</v>
       </c>
       <c r="S15">
-        <v>0.003140662658798979</v>
+        <v>0.003306053372033403</v>
       </c>
       <c r="T15">
-        <v>0.003140662658798979</v>
+        <v>0.003306053372033403</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.73152166666667</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H16">
-        <v>137.194565</v>
+        <v>147.329521</v>
       </c>
       <c r="I16">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J16">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.510748333333334</v>
+        <v>9.500690666666666</v>
       </c>
       <c r="N16">
-        <v>28.532245</v>
+        <v>28.502072</v>
       </c>
       <c r="O16">
-        <v>0.2937899100157199</v>
+        <v>0.3342591835080392</v>
       </c>
       <c r="P16">
-        <v>0.2937899100157199</v>
+        <v>0.3342591835080393</v>
       </c>
       <c r="Q16">
-        <v>434.9409934720473</v>
+        <v>466.5774016963902</v>
       </c>
       <c r="R16">
-        <v>3914.468941248425</v>
+        <v>4199.196615267511</v>
       </c>
       <c r="S16">
-        <v>0.04782616117041469</v>
+        <v>0.05029149903373221</v>
       </c>
       <c r="T16">
-        <v>0.04782616117041469</v>
+        <v>0.05029149903373221</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.73152166666667</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H17">
-        <v>137.194565</v>
+        <v>147.329521</v>
       </c>
       <c r="I17">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J17">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6502340000000001</v>
+        <v>0.158094</v>
       </c>
       <c r="N17">
-        <v>1.950702</v>
+        <v>0.474282</v>
       </c>
       <c r="O17">
-        <v>0.02008592611788819</v>
+        <v>0.005562161027189878</v>
       </c>
       <c r="P17">
-        <v>0.02008592611788819</v>
+        <v>0.005562161027189879</v>
       </c>
       <c r="Q17">
-        <v>29.73619025940334</v>
+        <v>7.763971097657999</v>
       </c>
       <c r="R17">
-        <v>267.6257123346301</v>
+        <v>69.87573987892199</v>
       </c>
       <c r="S17">
-        <v>0.003269794867086354</v>
+        <v>0.0008368638162417308</v>
       </c>
       <c r="T17">
-        <v>0.003269794867086354</v>
+        <v>0.0008368638162417309</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.73152166666667</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H18">
-        <v>137.194565</v>
+        <v>147.329521</v>
       </c>
       <c r="I18">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J18">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.477804333333334</v>
+        <v>5.217172000000001</v>
       </c>
       <c r="N18">
-        <v>13.433413</v>
+        <v>15.651516</v>
       </c>
       <c r="O18">
-        <v>0.1383207383952438</v>
+        <v>0.1835537766806222</v>
       </c>
       <c r="P18">
-        <v>0.1383207383952438</v>
+        <v>0.1835537766806221</v>
       </c>
       <c r="Q18">
-        <v>204.7768058889273</v>
+        <v>256.2144839115373</v>
       </c>
       <c r="R18">
-        <v>1842.991253000345</v>
+        <v>2305.930355203836</v>
       </c>
       <c r="S18">
-        <v>0.02251728089418635</v>
+        <v>0.02761687647797832</v>
       </c>
       <c r="T18">
-        <v>0.02251728089418635</v>
+        <v>0.02761687647797832</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>45.73152166666667</v>
+        <v>49.10984033333333</v>
       </c>
       <c r="H19">
-        <v>137.194565</v>
+        <v>147.329521</v>
       </c>
       <c r="I19">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="J19">
-        <v>0.1627903462302557</v>
+        <v>0.1504565963032775</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.06910633333333</v>
+        <v>12.86429733333333</v>
       </c>
       <c r="N19">
-        <v>51.207319</v>
+        <v>38.592892</v>
       </c>
       <c r="O19">
-        <v>0.5272698885473702</v>
+        <v>0.4525996765825987</v>
       </c>
       <c r="P19">
-        <v>0.5272698885473702</v>
+        <v>0.4525996765825987</v>
       </c>
       <c r="Q19">
-        <v>780.5962061134707</v>
+        <v>631.7635880405257</v>
       </c>
       <c r="R19">
-        <v>7025.365855021235</v>
+        <v>5685.872292364732</v>
       </c>
       <c r="S19">
-        <v>0.08583444771341471</v>
+        <v>0.068096606826582</v>
       </c>
       <c r="T19">
-        <v>0.08583444771341471</v>
+        <v>0.068096606826582</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.401639</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H20">
-        <v>115.204917</v>
+        <v>117.752914</v>
       </c>
       <c r="I20">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J20">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,28 +1677,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.04016966666666667</v>
+        <v>0.05831666666666666</v>
       </c>
       <c r="N20">
-        <v>0.120509</v>
+        <v>0.17495</v>
       </c>
       <c r="O20">
-        <v>0.001240853226449036</v>
+        <v>0.002051733086448293</v>
       </c>
       <c r="P20">
-        <v>0.001240853226449036</v>
+        <v>0.002051733086448293</v>
       </c>
       <c r="Q20">
-        <v>1.542581038083666</v>
+        <v>2.288985811588889</v>
       </c>
       <c r="R20">
-        <v>13.883229342753</v>
+        <v>20.6008723043</v>
       </c>
       <c r="S20">
-        <v>0.0001696223866066937</v>
+        <v>0.0002467254678713685</v>
       </c>
       <c r="T20">
-        <v>0.0001696223866066937</v>
+        <v>0.0002467254678713685</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.401639</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H21">
-        <v>115.204917</v>
+        <v>117.752914</v>
       </c>
       <c r="I21">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J21">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.873664</v>
       </c>
       <c r="O21">
-        <v>0.01929268369732889</v>
+        <v>0.02197346911510177</v>
       </c>
       <c r="P21">
-        <v>0.01929268369732889</v>
+        <v>0.02197346911510177</v>
       </c>
       <c r="Q21">
-        <v>23.98392284509866</v>
+        <v>24.51437731743289</v>
       </c>
       <c r="R21">
-        <v>215.855305605888</v>
+        <v>220.629395856896</v>
       </c>
       <c r="S21">
-        <v>0.002637274887178917</v>
+        <v>0.002642358542633552</v>
       </c>
       <c r="T21">
-        <v>0.002637274887178917</v>
+        <v>0.002642358542633553</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>38.401639</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H22">
-        <v>115.204917</v>
+        <v>117.752914</v>
       </c>
       <c r="I22">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J22">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.510748333333334</v>
+        <v>9.500690666666666</v>
       </c>
       <c r="N22">
-        <v>28.532245</v>
+        <v>28.502072</v>
       </c>
       <c r="O22">
-        <v>0.2937899100157199</v>
+        <v>0.3342591835080392</v>
       </c>
       <c r="P22">
-        <v>0.2937899100157199</v>
+        <v>0.3342591835080393</v>
       </c>
       <c r="Q22">
-        <v>365.2283241165183</v>
+        <v>372.9113370042008</v>
       </c>
       <c r="R22">
-        <v>3287.054917048665</v>
+        <v>3356.202033037808</v>
       </c>
       <c r="S22">
-        <v>0.04016054810965905</v>
+        <v>0.04019541040013394</v>
       </c>
       <c r="T22">
-        <v>0.04016054810965905</v>
+        <v>0.04019541040013395</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>38.401639</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H23">
-        <v>115.204917</v>
+        <v>117.752914</v>
       </c>
       <c r="I23">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J23">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.6502340000000001</v>
+        <v>0.158094</v>
       </c>
       <c r="N23">
-        <v>1.950702</v>
+        <v>0.474282</v>
       </c>
       <c r="O23">
-        <v>0.02008592611788819</v>
+        <v>0.005562161027189878</v>
       </c>
       <c r="P23">
-        <v>0.02008592611788819</v>
+        <v>0.005562161027189879</v>
       </c>
       <c r="Q23">
-        <v>24.970051333526</v>
+        <v>6.205343061971999</v>
       </c>
       <c r="R23">
-        <v>224.730462001734</v>
+        <v>55.848087557748</v>
       </c>
       <c r="S23">
-        <v>0.002745709688060233</v>
+        <v>0.0006688622369418029</v>
       </c>
       <c r="T23">
-        <v>0.002745709688060233</v>
+        <v>0.000668862236941803</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>38.401639</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H24">
-        <v>115.204917</v>
+        <v>117.752914</v>
       </c>
       <c r="I24">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J24">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.477804333333334</v>
+        <v>5.217172000000001</v>
       </c>
       <c r="N24">
-        <v>13.433413</v>
+        <v>15.651516</v>
       </c>
       <c r="O24">
-        <v>0.1383207383952438</v>
+        <v>0.1835537766806222</v>
       </c>
       <c r="P24">
-        <v>0.1383207383952438</v>
+        <v>0.1835537766806221</v>
       </c>
       <c r="Q24">
-        <v>171.9550255213024</v>
+        <v>204.7790686130693</v>
       </c>
       <c r="R24">
-        <v>1547.595229691721</v>
+        <v>1843.011617517624</v>
       </c>
       <c r="S24">
-        <v>0.01890819418743318</v>
+        <v>0.02207274997425671</v>
       </c>
       <c r="T24">
-        <v>0.01890819418743318</v>
+        <v>0.02207274997425671</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>38.401639</v>
+        <v>39.25097133333333</v>
       </c>
       <c r="H25">
-        <v>115.204917</v>
+        <v>117.752914</v>
       </c>
       <c r="I25">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="J25">
-        <v>0.1366981871756936</v>
+        <v>0.1202522245710183</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.06910633333333</v>
+        <v>12.86429733333333</v>
       </c>
       <c r="N25">
-        <v>51.207319</v>
+        <v>38.592892</v>
       </c>
       <c r="O25">
-        <v>0.5272698885473702</v>
+        <v>0.4525996765825987</v>
       </c>
       <c r="P25">
-        <v>0.5272698885473702</v>
+        <v>0.4525996765825987</v>
       </c>
       <c r="Q25">
-        <v>655.4816594652802</v>
+        <v>504.9361658541431</v>
       </c>
       <c r="R25">
-        <v>5899.334935187522</v>
+        <v>4544.425492687288</v>
       </c>
       <c r="S25">
-        <v>0.07207683791675552</v>
+        <v>0.0544261179491809</v>
       </c>
       <c r="T25">
-        <v>0.07207683791675552</v>
+        <v>0.0544261179491809</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.622288</v>
+        <v>34.33084866666667</v>
       </c>
       <c r="H26">
-        <v>103.866864</v>
+        <v>102.992546</v>
       </c>
       <c r="I26">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="J26">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.04016966666666667</v>
+        <v>0.05831666666666666</v>
       </c>
       <c r="N26">
-        <v>0.120509</v>
+        <v>0.17495</v>
       </c>
       <c r="O26">
-        <v>0.001240853226449036</v>
+        <v>0.002051733086448293</v>
       </c>
       <c r="P26">
-        <v>0.001240853226449036</v>
+        <v>0.002051733086448293</v>
       </c>
       <c r="Q26">
-        <v>1.390765768197334</v>
+        <v>2.002060658077778</v>
       </c>
       <c r="R26">
-        <v>12.516891913776</v>
+        <v>18.0185459227</v>
       </c>
       <c r="S26">
-        <v>0.000152928762242265</v>
+        <v>0.00021579834618032</v>
       </c>
       <c r="T26">
-        <v>0.000152928762242265</v>
+        <v>0.00021579834618032</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>34.622288</v>
+        <v>34.33084866666667</v>
       </c>
       <c r="H27">
-        <v>103.866864</v>
+        <v>102.992546</v>
       </c>
       <c r="I27">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="J27">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.873664</v>
       </c>
       <c r="O27">
-        <v>0.01929268369732889</v>
+        <v>0.02197346911510177</v>
       </c>
       <c r="P27">
-        <v>0.01929268369732889</v>
+        <v>0.02197346911510177</v>
       </c>
       <c r="Q27">
-        <v>21.62351154107734</v>
+        <v>21.44149174539378</v>
       </c>
       <c r="R27">
-        <v>194.611603869696</v>
+        <v>192.973425708544</v>
       </c>
       <c r="S27">
-        <v>0.00237772379140057</v>
+        <v>0.002311137996556749</v>
       </c>
       <c r="T27">
-        <v>0.00237772379140057</v>
+        <v>0.002311137996556749</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>34.622288</v>
+        <v>34.33084866666667</v>
       </c>
       <c r="H28">
-        <v>103.866864</v>
+        <v>102.992546</v>
       </c>
       <c r="I28">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="J28">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.510748333333334</v>
+        <v>9.500690666666666</v>
       </c>
       <c r="N28">
-        <v>28.532245</v>
+        <v>28.502072</v>
       </c>
       <c r="O28">
-        <v>0.2937899100157199</v>
+        <v>0.3342591835080392</v>
       </c>
       <c r="P28">
-        <v>0.2937899100157199</v>
+        <v>0.3342591835080393</v>
       </c>
       <c r="Q28">
-        <v>329.2838678921867</v>
+        <v>326.1667735061458</v>
       </c>
       <c r="R28">
-        <v>2963.55481102968</v>
+        <v>2935.500961555312</v>
       </c>
       <c r="S28">
-        <v>0.03620809161011256</v>
+        <v>0.03515690197377768</v>
       </c>
       <c r="T28">
-        <v>0.03620809161011257</v>
+        <v>0.03515690197377769</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>34.622288</v>
+        <v>34.33084866666667</v>
       </c>
       <c r="H29">
-        <v>103.866864</v>
+        <v>102.992546</v>
       </c>
       <c r="I29">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="J29">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.6502340000000001</v>
+        <v>0.158094</v>
       </c>
       <c r="N29">
-        <v>1.950702</v>
+        <v>0.474282</v>
       </c>
       <c r="O29">
-        <v>0.02008592611788819</v>
+        <v>0.005562161027189878</v>
       </c>
       <c r="P29">
-        <v>0.02008592611788819</v>
+        <v>0.005562161027189879</v>
       </c>
       <c r="Q29">
-        <v>22.51258881539201</v>
+        <v>5.427501189108</v>
       </c>
       <c r="R29">
-        <v>202.613299338528</v>
+        <v>48.847510701972</v>
       </c>
       <c r="S29">
-        <v>0.002475486829726501</v>
+        <v>0.0005850201270254045</v>
       </c>
       <c r="T29">
-        <v>0.002475486829726501</v>
+        <v>0.0005850201270254046</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>34.622288</v>
+        <v>34.33084866666667</v>
       </c>
       <c r="H30">
-        <v>103.866864</v>
+        <v>102.992546</v>
       </c>
       <c r="I30">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="J30">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.477804333333334</v>
+        <v>5.217172000000001</v>
       </c>
       <c r="N30">
-        <v>13.433413</v>
+        <v>15.651516</v>
       </c>
       <c r="O30">
-        <v>0.1383207383952438</v>
+        <v>0.1835537766806222</v>
       </c>
       <c r="P30">
-        <v>0.1383207383952438</v>
+        <v>0.1835537766806221</v>
       </c>
       <c r="Q30">
-        <v>155.0318312363147</v>
+        <v>179.1099423999707</v>
       </c>
       <c r="R30">
-        <v>1395.286481126832</v>
+        <v>1611.989481599736</v>
       </c>
       <c r="S30">
-        <v>0.01704731781675354</v>
+        <v>0.01930592322386292</v>
       </c>
       <c r="T30">
-        <v>0.01704731781675354</v>
+        <v>0.01930592322386292</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>34.622288</v>
+        <v>34.33084866666667</v>
       </c>
       <c r="H31">
-        <v>103.866864</v>
+        <v>102.992546</v>
       </c>
       <c r="I31">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="J31">
-        <v>0.1232448439368635</v>
+        <v>0.1051785671370556</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>17.06910633333333</v>
+        <v>12.86429733333333</v>
       </c>
       <c r="N31">
-        <v>51.207319</v>
+        <v>38.592892</v>
       </c>
       <c r="O31">
-        <v>0.5272698885473702</v>
+        <v>0.4525996765825987</v>
       </c>
       <c r="P31">
-        <v>0.5272698885473702</v>
+        <v>0.4525996765825987</v>
       </c>
       <c r="Q31">
-        <v>590.9715153752908</v>
+        <v>441.6422449536702</v>
       </c>
       <c r="R31">
-        <v>5318.743638377616</v>
+        <v>3974.780204583032</v>
       </c>
       <c r="S31">
-        <v>0.06498329512662805</v>
+        <v>0.04760378546965249</v>
       </c>
       <c r="T31">
-        <v>0.06498329512662807</v>
+        <v>0.04760378546965249</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>45.201959</v>
+        <v>67.01892333333332</v>
       </c>
       <c r="H32">
-        <v>135.605877</v>
+        <v>201.05677</v>
       </c>
       <c r="I32">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="J32">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2421,28 +2421,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M32">
-        <v>0.04016966666666667</v>
+        <v>0.05831666666666666</v>
       </c>
       <c r="N32">
-        <v>0.120509</v>
+        <v>0.17495</v>
       </c>
       <c r="O32">
-        <v>0.001240853226449036</v>
+        <v>0.002051733086448293</v>
       </c>
       <c r="P32">
-        <v>0.001240853226449036</v>
+        <v>0.002051733086448293</v>
       </c>
       <c r="Q32">
-        <v>1.815747625710333</v>
+        <v>3.908320212388888</v>
       </c>
       <c r="R32">
-        <v>16.341728631393</v>
+        <v>35.17488191149999</v>
       </c>
       <c r="S32">
-        <v>0.0001996598156885417</v>
+        <v>0.000421270471887907</v>
       </c>
       <c r="T32">
-        <v>0.0001996598156885418</v>
+        <v>0.000421270471887907</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>45.201959</v>
+        <v>67.01892333333332</v>
       </c>
       <c r="H33">
-        <v>135.605877</v>
+        <v>201.05677</v>
       </c>
       <c r="I33">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="J33">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.873664</v>
       </c>
       <c r="O33">
-        <v>0.01929268369732889</v>
+        <v>0.02197346911510177</v>
       </c>
       <c r="P33">
-        <v>0.01929268369732889</v>
+        <v>0.02197346911510177</v>
       </c>
       <c r="Q33">
-        <v>28.23109443592533</v>
+        <v>41.85698132280888</v>
       </c>
       <c r="R33">
-        <v>254.079849923328</v>
+        <v>376.71283190528</v>
       </c>
       <c r="S33">
-        <v>0.003104294358946269</v>
+        <v>0.00451168515255435</v>
       </c>
       <c r="T33">
-        <v>0.003104294358946269</v>
+        <v>0.004511685152554351</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>45.201959</v>
+        <v>67.01892333333332</v>
       </c>
       <c r="H34">
-        <v>135.605877</v>
+        <v>201.05677</v>
       </c>
       <c r="I34">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="J34">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.510748333333334</v>
+        <v>9.500690666666666</v>
       </c>
       <c r="N34">
-        <v>28.532245</v>
+        <v>28.502072</v>
       </c>
       <c r="O34">
-        <v>0.2937899100157199</v>
+        <v>0.3342591835080392</v>
       </c>
       <c r="P34">
-        <v>0.2937899100157199</v>
+        <v>0.3342591835080393</v>
       </c>
       <c r="Q34">
-        <v>429.9044562226516</v>
+        <v>636.7260594030487</v>
       </c>
       <c r="R34">
-        <v>3869.140106003865</v>
+        <v>5730.534534627439</v>
       </c>
       <c r="S34">
-        <v>0.0472723429609433</v>
+        <v>0.06863150226477908</v>
       </c>
       <c r="T34">
-        <v>0.04727234296094331</v>
+        <v>0.0686315022647791</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>45.201959</v>
+        <v>67.01892333333332</v>
       </c>
       <c r="H35">
-        <v>135.605877</v>
+        <v>201.05677</v>
       </c>
       <c r="I35">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="J35">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.6502340000000001</v>
+        <v>0.158094</v>
       </c>
       <c r="N35">
-        <v>1.950702</v>
+        <v>0.474282</v>
       </c>
       <c r="O35">
-        <v>0.02008592611788819</v>
+        <v>0.005562161027189878</v>
       </c>
       <c r="P35">
-        <v>0.02008592611788819</v>
+        <v>0.005562161027189879</v>
       </c>
       <c r="Q35">
-        <v>29.391850608406</v>
+        <v>10.59528966546</v>
       </c>
       <c r="R35">
-        <v>264.526655475654</v>
+        <v>95.35760698913998</v>
       </c>
       <c r="S35">
-        <v>0.003231931239851544</v>
+        <v>0.001142046310076824</v>
       </c>
       <c r="T35">
-        <v>0.003231931239851545</v>
+        <v>0.001142046310076824</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>45.201959</v>
+        <v>67.01892333333332</v>
       </c>
       <c r="H36">
-        <v>135.605877</v>
+        <v>201.05677</v>
       </c>
       <c r="I36">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="J36">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.477804333333334</v>
+        <v>5.217172000000001</v>
       </c>
       <c r="N36">
-        <v>13.433413</v>
+        <v>15.651516</v>
       </c>
       <c r="O36">
-        <v>0.1383207383952438</v>
+        <v>0.1835537766806222</v>
       </c>
       <c r="P36">
-        <v>0.1383207383952438</v>
+        <v>0.1835537766806221</v>
       </c>
       <c r="Q36">
-        <v>202.4055278853557</v>
+        <v>349.6492502848133</v>
       </c>
       <c r="R36">
-        <v>1821.649750968201</v>
+        <v>3146.84325256332</v>
       </c>
       <c r="S36">
-        <v>0.02225653489488802</v>
+        <v>0.03768803390157833</v>
       </c>
       <c r="T36">
-        <v>0.02225653489488803</v>
+        <v>0.03768803390157832</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>45.201959</v>
+        <v>67.01892333333332</v>
       </c>
       <c r="H37">
-        <v>135.605877</v>
+        <v>201.05677</v>
       </c>
       <c r="I37">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="J37">
-        <v>0.160905263759446</v>
+        <v>0.205324208431594</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>17.06910633333333</v>
+        <v>12.86429733333333</v>
       </c>
       <c r="N37">
-        <v>51.207319</v>
+        <v>38.592892</v>
       </c>
       <c r="O37">
-        <v>0.5272698885473702</v>
+        <v>0.4525996765825987</v>
       </c>
       <c r="P37">
-        <v>0.5272698885473702</v>
+        <v>0.4525996765825987</v>
       </c>
       <c r="Q37">
-        <v>771.5570446459736</v>
+        <v>862.1513567198709</v>
       </c>
       <c r="R37">
-        <v>6944.013401813762</v>
+        <v>7759.362210478838</v>
       </c>
       <c r="S37">
-        <v>0.08484050048912829</v>
+        <v>0.09292967033071754</v>
       </c>
       <c r="T37">
-        <v>0.08484050048912831</v>
+        <v>0.09292967033071754</v>
       </c>
     </row>
   </sheetData>
